--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf6-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf6-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,7 @@
     <t>Bmpr1b</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +522,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,34 +543,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.050199</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N2">
-        <v>0.100398</v>
+        <v>2.312651</v>
       </c>
       <c r="O2">
-        <v>0.03278033019113316</v>
+        <v>0.5975056510655317</v>
       </c>
       <c r="P2">
-        <v>0.02558313640211376</v>
+        <v>0.6900916471389698</v>
       </c>
       <c r="Q2">
-        <v>0.011658868347</v>
+        <v>0.1790400442343333</v>
       </c>
       <c r="R2">
-        <v>0.06995321008199999</v>
+        <v>1.611360398109</v>
       </c>
       <c r="S2">
-        <v>0.03278033019113316</v>
+        <v>0.5975056510655317</v>
       </c>
       <c r="T2">
-        <v>0.02558313640211376</v>
+        <v>0.6900916471389698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -611,158 +605,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7708836666666666</v>
+        <v>0.519286</v>
       </c>
       <c r="N3">
-        <v>2.312651</v>
+        <v>1.038572</v>
       </c>
       <c r="O3">
-        <v>0.5033929188287568</v>
+        <v>0.4024943489344683</v>
       </c>
       <c r="P3">
-        <v>0.5893032329676366</v>
+        <v>0.3099083528610301</v>
       </c>
       <c r="Q3">
-        <v>0.1790400442343333</v>
+        <v>0.120605731358</v>
       </c>
       <c r="R3">
-        <v>1.611360398109</v>
+        <v>0.723634388148</v>
       </c>
       <c r="S3">
-        <v>0.5033929188287568</v>
+        <v>0.4024943489344683</v>
       </c>
       <c r="T3">
-        <v>0.5893032329676366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.232253</v>
-      </c>
-      <c r="H4">
-        <v>0.6967589999999999</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.6195459999999999</v>
-      </c>
-      <c r="N4">
-        <v>1.239092</v>
-      </c>
-      <c r="O4">
-        <v>0.4045682672681883</v>
-      </c>
-      <c r="P4">
-        <v>0.3157419435722618</v>
-      </c>
-      <c r="Q4">
-        <v>0.143891417138</v>
-      </c>
-      <c r="R4">
-        <v>0.8633485028279998</v>
-      </c>
-      <c r="S4">
-        <v>0.4045682672681883</v>
-      </c>
-      <c r="T4">
-        <v>0.3157419435722618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.232253</v>
-      </c>
-      <c r="H5">
-        <v>0.6967589999999999</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.09074700000000001</v>
-      </c>
-      <c r="N5">
-        <v>0.272241</v>
-      </c>
-      <c r="O5">
-        <v>0.05925848371192178</v>
-      </c>
-      <c r="P5">
-        <v>0.06937168705798773</v>
-      </c>
-      <c r="Q5">
-        <v>0.021076262991</v>
-      </c>
-      <c r="R5">
-        <v>0.189686366919</v>
-      </c>
-      <c r="S5">
-        <v>0.05925848371192178</v>
-      </c>
-      <c r="T5">
-        <v>0.06937168705798773</v>
+        <v>0.3099083528610301</v>
       </c>
     </row>
   </sheetData>
